--- a/biology/Zoologie/Antipathes/Antipathes.xlsx
+++ b/biology/Zoologie/Antipathes/Antipathes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antipathes est un genre de coraux noirs de la famille des Antipathidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Typique de leur ordre, l'exosquelette de ces espèces est d'aspect sombre sous l'épiderme (coenenchyme). Le squelette est aussi recouvert par de fines petites épines. Les polypes ont 6 tentacules[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Typique de leur ordre, l'exosquelette de ces espèces est d'aspect sombre sous l'épiderme (coenenchyme). Le squelette est aussi recouvert par de fines petites épines. Les polypes ont 6 tentacules.
 Ces coraux sont souvent les hôtes de crevettes, d'échinodermes ou de petits poissons symbiotiques.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (19 avril 2016)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (19 avril 2016) :
 Antipathes aculeata (Brook, 1889)
 Antipathes arborea Dana, 1846
 Antipathes assimilis (Brook, 1889)
@@ -566,7 +582,7 @@
 Antipathes dubia (Brook, 1889)
 Antipathes elegans (Thomson &amp; Simpson, 1905)
 Antipathes erinaceus (Roule, 1905)
-Antipathes falkorae Horowitz et al., 2022[4]
+Antipathes falkorae Horowitz et al., 2022
 Antipathes flabellum Pallas, 1766
 Antipathes fragilis Gravier, 1918
 Antipathes fruticosa Gray, 1857
@@ -587,7 +603,7 @@
 Antipathes lentipinna Brook, 1889
 Antipathes longibrachiata van Pesch, 1914
 Antipathes minor (Brook, 1889)
-Antipathes morrisi Horowitz et al., 2022[4]
+Antipathes morrisi Horowitz et al., 2022
 Antipathes nilanduensis Cooper, 1903
 Antipathes orichalcea Pallas, 1766
 Antipathes pauroclema Pax &amp; Tischbierek, 1932
